--- a/Programação em Microinformática/EXERCICIO 2 - EXCEL - ADS.xlsx
+++ b/Programação em Microinformática/EXERCICIO 2 - EXCEL - ADS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fatec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87659102-93CD-47F6-A793-65963B9EBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E3767-80E7-4102-8A0A-4976047F82DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -136,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +211,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -227,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -353,12 +371,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -380,7 +409,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,23 +419,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -419,13 +456,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1264,15 +1294,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -1929,7 +1959,7 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>0.4</v>
       </c>
       <c r="G6" t="s">
@@ -1984,32 +2014,32 @@
       <c r="B8" s="10">
         <v>1.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>100</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="28">
         <f>(B8*$B$6)+B8</f>
         <v>2.1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="22">
         <v>180</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="22">
         <v>200</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="29">
         <f>E8-F8</f>
         <v>-20</v>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="30" t="str">
         <f>IF(E8&gt;=F8,"Meta Superada","Não Superada")</f>
         <v>Não Superada</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f>B8*C8</f>
         <v>150</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f>D8*E8</f>
         <v>378</v>
       </c>
@@ -2021,32 +2051,32 @@
       <c r="B9" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>200</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="28">
         <f t="shared" ref="D9:D22" si="0">(B9*$B$6)+B9</f>
         <v>3.2199999999999998</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="22">
         <v>264</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="22">
         <v>200</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="29">
         <f t="shared" ref="G9:G22" si="1">E9-F9</f>
         <v>64</v>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="30" t="str">
         <f t="shared" ref="H9:H22" si="2">IF(E9&gt;=F9,"Meta Superada","Não Superada")</f>
         <v>Meta Superada</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f t="shared" ref="I9:I22" si="3">B9*C9</f>
         <v>459.99999999999994</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" ref="J9:J22" si="4">D9*E9</f>
         <v>850.07999999999993</v>
       </c>
@@ -2058,32 +2088,32 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="22">
         <v>300</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="28">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="22">
         <v>378</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="22">
         <v>400</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="29">
         <f t="shared" si="1"/>
         <v>-22</v>
       </c>
-      <c r="H10" s="24" t="str">
+      <c r="H10" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="4"/>
         <v>1058.3999999999999</v>
       </c>
@@ -2095,32 +2125,32 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="22">
         <v>500</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="28">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="22">
         <v>695</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="22">
         <v>500</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="4"/>
         <v>2919</v>
       </c>
@@ -2132,32 +2162,32 @@
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="22">
         <v>1000</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="28">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="22">
         <v>1254</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="22">
         <v>1500</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="29">
         <f t="shared" si="1"/>
         <v>-246</v>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="4"/>
         <v>1755.6</v>
       </c>
@@ -2169,32 +2199,32 @@
       <c r="B13" s="10">
         <v>0.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="22">
         <v>1000</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="22">
         <v>2547</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="22">
         <v>2700</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="29">
         <f t="shared" si="1"/>
         <v>-153</v>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="4"/>
         <v>1782.8999999999999</v>
       </c>
@@ -2206,32 +2236,32 @@
       <c r="B14" s="10">
         <v>0.1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="22">
         <v>2000</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="28">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="22">
         <v>3256</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="22">
         <v>3000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>455.84000000000003</v>
       </c>
@@ -2243,32 +2273,32 @@
       <c r="B15" s="10">
         <v>0.1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="22">
         <v>10000</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="28">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="22">
         <v>33214</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="22">
         <v>33000</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>4649.96</v>
       </c>
@@ -2280,32 +2310,32 @@
       <c r="B16" s="10">
         <v>0.2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="22">
         <v>200</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="28">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="22">
         <v>450</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="22">
         <v>500</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f t="shared" si="4"/>
         <v>126.00000000000001</v>
       </c>
@@ -2317,32 +2347,32 @@
       <c r="B17" s="10">
         <v>0.1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="22">
         <v>5000</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="28">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="22">
         <v>7894</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="22">
         <v>8000</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="29">
         <f t="shared" si="1"/>
         <v>-106</v>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <f t="shared" si="4"/>
         <v>1105.1600000000001</v>
       </c>
@@ -2354,32 +2384,32 @@
       <c r="B18" s="10">
         <v>120</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="22">
         <v>50</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="28">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="22">
         <v>105</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="22">
         <v>200</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="29">
         <f t="shared" si="1"/>
         <v>-95</v>
       </c>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f t="shared" si="4"/>
         <v>17640</v>
       </c>
@@ -2391,32 +2421,32 @@
       <c r="B19" s="10">
         <v>80</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="22">
         <v>200</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="28">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="22">
         <v>260</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="22">
         <v>200</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f t="shared" si="4"/>
         <v>29120</v>
       </c>
@@ -2428,32 +2458,32 @@
       <c r="B20" s="10">
         <v>60.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="22">
         <v>10</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="28">
         <f t="shared" si="0"/>
         <v>84.7</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="22">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="22">
         <v>20</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="29">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f t="shared" si="3"/>
         <v>605</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <f t="shared" si="4"/>
         <v>1016.4000000000001</v>
       </c>
@@ -2465,117 +2495,119 @@
       <c r="B21" s="10">
         <v>300</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="22">
         <v>50</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="28">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="22">
         <v>48</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="22">
         <v>50</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="29">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <f t="shared" si="4"/>
         <v>20160</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>575</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>50</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="31">
         <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>68</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>60</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="33">
         <f t="shared" si="3"/>
         <v>28750</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="34">
         <f t="shared" si="4"/>
         <v>54740</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="27">
         <f>SUM(I8:I22)</f>
         <v>72305</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="28">
+      <c r="B24" s="18"/>
+      <c r="C24" s="25">
         <f>SUM(J8:J22)</f>
         <v>137757.34</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="22"/>
+    </row>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18">
+      <c r="B26" s="17"/>
+      <c r="C26" s="19">
         <f>SUM(F8:F22)</f>
         <v>50530</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20">
         <f>SUM(E8:E22)</f>
         <v>50625</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -2592,11 +2624,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H8:H22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Meta Superada"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Não Superada"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Meta Superada"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Programação em Microinformática/EXERCICIO 2 - EXCEL - ADS.xlsx
+++ b/Programação em Microinformática/EXERCICIO 2 - EXCEL - ADS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fatec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E3767-80E7-4102-8A0A-4976047F82DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87659102-93CD-47F6-A793-65963B9EBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -147,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +200,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -245,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -371,23 +353,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,6 +380,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,32 +391,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -456,6 +419,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1294,15 +1264,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -1959,7 +1929,7 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="23">
         <v>0.4</v>
       </c>
       <c r="G6" t="s">
@@ -2014,32 +1984,32 @@
       <c r="B8" s="10">
         <v>1.5</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>(B8*$B$6)+B8</f>
         <v>2.1</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8">
         <v>180</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8">
         <v>200</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="11">
         <f>E8-F8</f>
         <v>-20</v>
       </c>
-      <c r="H8" s="30" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(E8&gt;=F8,"Meta Superada","Não Superada")</f>
         <v>Não Superada</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="12">
         <f>B8*C8</f>
         <v>150</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="13">
         <f>D8*E8</f>
         <v>378</v>
       </c>
@@ -2051,32 +2021,32 @@
       <c r="B9" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>200</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f t="shared" ref="D9:D22" si="0">(B9*$B$6)+B9</f>
         <v>3.2199999999999998</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9">
         <v>264</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9">
         <v>200</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="11">
         <f t="shared" ref="G9:G22" si="1">E9-F9</f>
         <v>64</v>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="24" t="str">
         <f t="shared" ref="H9:H22" si="2">IF(E9&gt;=F9,"Meta Superada","Não Superada")</f>
         <v>Meta Superada</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="12">
         <f t="shared" ref="I9:I22" si="3">B9*C9</f>
         <v>459.99999999999994</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="13">
         <f t="shared" ref="J9:J22" si="4">D9*E9</f>
         <v>850.07999999999993</v>
       </c>
@@ -2088,32 +2058,32 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>300</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10">
         <v>378</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <v>400</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>-22</v>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="H10" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="12">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="13">
         <f t="shared" si="4"/>
         <v>1058.3999999999999</v>
       </c>
@@ -2125,32 +2095,32 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>500</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11">
         <v>695</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <v>500</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="12">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="13">
         <f t="shared" si="4"/>
         <v>2919</v>
       </c>
@@ -2162,32 +2132,32 @@
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>1000</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12">
         <v>1254</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <v>1500</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>-246</v>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="12">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="13">
         <f t="shared" si="4"/>
         <v>1755.6</v>
       </c>
@@ -2199,32 +2169,32 @@
       <c r="B13" s="10">
         <v>0.5</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13">
         <v>2547</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13">
         <v>2700</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
         <v>-153</v>
       </c>
-      <c r="H13" s="30" t="str">
+      <c r="H13" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="12">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="13">
         <f t="shared" si="4"/>
         <v>1782.8999999999999</v>
       </c>
@@ -2236,32 +2206,32 @@
       <c r="B14" s="10">
         <v>0.1</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>2000</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14">
         <v>3256</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14">
         <v>3000</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="H14" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="12">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="13">
         <f t="shared" si="4"/>
         <v>455.84000000000003</v>
       </c>
@@ -2273,32 +2243,32 @@
       <c r="B15" s="10">
         <v>0.1</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15">
         <v>10000</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15">
         <v>33214</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15">
         <v>33000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="H15" s="30" t="str">
+      <c r="H15" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="12">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="13">
         <f t="shared" si="4"/>
         <v>4649.96</v>
       </c>
@@ -2310,32 +2280,32 @@
       <c r="B16" s="10">
         <v>0.2</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>200</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16">
         <v>450</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16">
         <v>500</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="H16" s="30" t="str">
+      <c r="H16" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="12">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="13">
         <f t="shared" si="4"/>
         <v>126.00000000000001</v>
       </c>
@@ -2347,32 +2317,32 @@
       <c r="B17" s="10">
         <v>0.1</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17">
         <v>5000</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17">
         <v>7894</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <v>8000</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="11">
         <f t="shared" si="1"/>
         <v>-106</v>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="H17" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="13">
         <f t="shared" si="4"/>
         <v>1105.1600000000001</v>
       </c>
@@ -2384,32 +2354,32 @@
       <c r="B18" s="10">
         <v>120</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18">
         <v>50</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18">
         <v>105</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18">
         <v>200</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="11">
         <f t="shared" si="1"/>
         <v>-95</v>
       </c>
-      <c r="H18" s="30" t="str">
+      <c r="H18" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="12">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="13">
         <f t="shared" si="4"/>
         <v>17640</v>
       </c>
@@ -2421,32 +2391,32 @@
       <c r="B19" s="10">
         <v>80</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>200</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="26">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <v>260</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19">
         <v>200</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H19" s="30" t="str">
+      <c r="H19" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="13">
         <f t="shared" si="4"/>
         <v>29120</v>
       </c>
@@ -2458,32 +2428,32 @@
       <c r="B20" s="10">
         <v>60.5</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="26">
         <f t="shared" si="0"/>
         <v>84.7</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20">
         <v>12</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="12">
         <f t="shared" si="3"/>
         <v>605</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="13">
         <f t="shared" si="4"/>
         <v>1016.4000000000001</v>
       </c>
@@ -2495,119 +2465,117 @@
       <c r="B21" s="10">
         <v>300</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21">
         <v>50</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21">
         <v>48</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="11">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Não Superada</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="12">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="13">
         <f t="shared" si="4"/>
         <v>20160</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>575</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>50</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="26">
         <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="16">
         <v>68</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H22" s="32" t="str">
+      <c r="H22" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Meta Superada</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="12">
         <f t="shared" si="3"/>
         <v>28750</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="13">
         <f t="shared" si="4"/>
         <v>54740</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="27">
         <f>SUM(I8:I22)</f>
         <v>72305</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="28">
         <f>SUM(J8:J22)</f>
         <v>137757.34</v>
       </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="22"/>
-    </row>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="19">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18">
         <f>SUM(F8:F22)</f>
         <v>50530</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19">
         <f>SUM(E8:E22)</f>
         <v>50625</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -2624,11 +2592,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H8:H22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Meta Superada"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Não Superada"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Meta Superada"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
